--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/营业利润.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/营业利润.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-14.32672</v>
-      </c>
-      <c r="C2" t="n">
-        <v>91.10153</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.60098</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.01752</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.39031</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.78477</v>
-      </c>
-      <c r="H2" t="n">
-        <v>31.97451</v>
-      </c>
-      <c r="I2" t="n">
-        <v>59.80611</v>
-      </c>
-      <c r="J2" t="n">
-        <v>13.0178</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2093.70912</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.73209</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.05572</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.35872</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-6.22781</v>
-      </c>
-      <c r="P2" t="n">
-        <v>39.97357</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>6.06955</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.99801</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-4.23749</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4.62554</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-7.70262</v>
-      </c>
-      <c r="V2" t="n">
-        <v>101.52224</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-24.46726</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-28.92683</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>397.57137</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>118.0491</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>9.53293</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>-3.41606</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-29.85588</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1157.18185</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>20.1752</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>-2.77203</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>8.332750000000001</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>-0.24723</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>-6.05064</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>-0.47921</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>10.91728</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>-4.97208</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>64.02061</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>90.79172</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.05257</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-11.87624</v>
-      </c>
-      <c r="C3" t="n">
-        <v>129.36384</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.9254599999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00213</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.4326</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-43.23893</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.27294</v>
-      </c>
-      <c r="I3" t="n">
-        <v>59.29304</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16.14899</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1951.61253</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8.29692</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.19658</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.82167</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-2.23107</v>
-      </c>
-      <c r="P3" t="n">
-        <v>26.75988</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.60391</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.13501</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-2.5228</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.90317</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-1.36381</v>
-      </c>
-      <c r="V3" t="n">
-        <v>161.46471</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-19.02347</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.9617</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>426.19161</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>83.39008</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>7.8274</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.18778</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-44.74424</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>948.40229</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-14.04658</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-4.69115</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9.06188</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>-0.1456</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>-3.52931</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>-2.04722</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>10.62097</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>7.16845</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>59.07311</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>147.84425</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.82299</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.24174</v>
-      </c>
-      <c r="C4" t="n">
-        <v>253.3254</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.6367699999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00659</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.06836</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.74236</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.53034</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68.99651</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16.09759</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2325.53955</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8.3497</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.16815</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.81956</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32.82816</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29.02363</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.37102</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.5049</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-2.95902</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.52608</v>
-      </c>
-      <c r="U4" t="n">
-        <v>-0.06079</v>
-      </c>
-      <c r="V4" t="n">
-        <v>201.24624</v>
-      </c>
-      <c r="W4" t="n">
-        <v>-17.5984</v>
-      </c>
-      <c r="X4" t="n">
-        <v>41.5272</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>371.21196</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>68.66811</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>5.52178</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>-2.63173</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>40.36003</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>885.26459</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>-3.07911</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>-13.58609</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>16.15646</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>3.35627</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>-8.111050000000001</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.07926</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>20.39909</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>6.05889</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>61.90637</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>229.01821</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.82258</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
